--- a/www/data-entry-template/GLATAR_data_entry_template_v16_long.xlsx
+++ b/www/data-entry-template/GLATAR_data_entry_template_v16_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benhlina/Library/CloudStorage/Dropbox/GitHub/GLATAR-App/www/data-entry-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1F97E-FA4D-B140-BC10-5DAEC7F0E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C54162-3261-1E41-A900-519BB4B70E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19460" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
   </bookViews>
@@ -1437,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1545,13 +1545,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,16 +1559,22 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,20 +1933,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
@@ -2933,7 +2932,7 @@
       <c r="A74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="43" t="s">
         <v>238</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2944,198 +2943,198 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="44" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="47" t="s">
+      <c r="D76" s="44" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="44" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="47" t="s">
+      <c r="D78" s="44" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="46" t="s">
         <v>247</v>
       </c>
       <c r="B79" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="46" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="46" t="s">
         <v>257</v>
       </c>
       <c r="B80" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="D80" s="47" t="s">
+      <c r="D80" s="44" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="46" t="s">
         <v>257</v>
       </c>
       <c r="B81" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D81" s="44" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="46" t="s">
         <v>257</v>
       </c>
       <c r="B82" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="44" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="46" t="s">
         <v>284</v>
       </c>
       <c r="B83" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="46" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B84" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="46" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B85" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="46" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B86" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="46" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B87" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="46" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B88" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="46" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3164,27 +3163,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="17" t="s">
         <v>214</v>
       </c>
@@ -3238,27 +3237,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="17" t="s">
         <v>25</v>
       </c>
@@ -44216,13 +44215,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99CF4A-5D49-794D-A1CB-3B08F37AF445}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BK5" sqref="BK5"/>
+      <selection pane="bottomRight" activeCell="BJ6" sqref="BJ6:BJ10000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44271,27 +44270,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
@@ -44312,31 +44311,31 @@
       <c r="AU4" t="s">
         <v>39</v>
       </c>
-      <c r="BB4" s="50" t="s">
+      <c r="BB4" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="50" t="s">
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="BF4" s="50"/>
-      <c r="BG4" s="50"/>
-      <c r="BH4" s="50" t="s">
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="BI4" s="51"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51" t="s">
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="BL4" s="51" t="s">
+      <c r="BL4" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="BM4" s="51"/>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="51"/>
-      <c r="BP4" s="51"/>
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -44498,78 +44497,51 @@
       <c r="BA5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="BB5" s="52" t="s">
+      <c r="BB5" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="BC5" s="53" t="s">
+      <c r="BC5" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="BD5" s="53" t="s">
+      <c r="BD5" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="BE5" s="54" t="s">
+      <c r="BE5" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="BF5" s="54" t="s">
+      <c r="BF5" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="BG5" s="54" t="s">
+      <c r="BG5" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="BH5" s="53" t="s">
+      <c r="BH5" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="BI5" s="53" t="s">
+      <c r="BI5" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="BJ5" s="53" t="s">
+      <c r="BJ5" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="BK5" s="53" t="s">
+      <c r="BK5" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="BL5" s="53" t="s">
+      <c r="BL5" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="BM5" s="53" t="s">
+      <c r="BM5" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="BN5" s="53" t="s">
+      <c r="BN5" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="BO5" s="53" t="s">
+      <c r="BO5" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="BP5" s="53" t="s">
+      <c r="BP5" s="50" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="55"/>
-      <c r="BD6" s="55"/>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="55"/>
-      <c r="BG6" s="55"/>
-      <c r="BH6" s="55"/>
-      <c r="BI6" s="55"/>
-      <c r="BJ6" s="55"/>
-      <c r="BK6" s="55"/>
-      <c r="BL6" s="55"/>
-      <c r="BM6" s="55"/>
-      <c r="BN6" s="55"/>
-      <c r="BO6" s="55"/>
-      <c r="BP6" s="55"/>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="55"/>
-      <c r="BK7" s="55"/>
-      <c r="BL7" s="55"/>
-      <c r="BM7" s="55"/>
-      <c r="BN7" s="55"/>
-      <c r="BO7" s="55"/>
-      <c r="BP7" s="55"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -44579,7 +44551,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="18">
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Unknown sex " error="You have entered an unknown value for sex " promptTitle="Sex" sqref="L5" xr:uid="{61B800F7-85EA-B74C-8D79-217EB2BB8728}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R999" xr:uid="{C1262AB6-4400-D04A-976B-8F918C2989AD}">
       <formula1>"Total, Fork, Standard, Carapace"</formula1>
@@ -44614,6 +44586,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V10000" xr:uid="{E2A68CBD-EDB8-0D48-9B6E-B29E20DC1B19}">
       <formula1>"belly flap, blood, carcass, cleithra, eye lens, fin, gonad, liver, muscle, otolith, scale, spine, stomach, viscera, whole body, whole body (gonads removed), whole body (stomach removed)"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC6:BC10000" xr:uid="{6BCDA29E-00AD-DC44-9456-909A8798CD81}">
+      <formula1>"% sample weight, % total lipids"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD6:BD10000" xr:uid="{E7DEBB61-EEAB-5E49-BAAF-DCF74DD84173}">
+      <formula1>"triscylglycerides, fatty acids, sterols, phospholipids"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF6:BF10000" xr:uid="{A2AF2A31-EEE5-FB45-8243-B4B5BFCCD547}">
+      <formula1>"ug/mg sample weight,% total fatty acid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG6:BG10000" xr:uid="{8DA5F666-C5FB-A546-AA7B-E8D1C34FC070}">
+      <formula1>"∑SFA (saturated), ∑UFA (unsaturated), ∑MUFA (monounsaturated), ∑PUFA (polyunsaturated), ∑n-3, ∑n-6, 14:0, 16:0, 18:0, 16:1n-7 (POA), 18:1n-9 (OA), 18:3n-3 (ALA), 18:4n-3 (SDA), 18:2n-6 (LIN), 20:4n-6 (ARA), 20:5n-3 (EPA), 22:5n-6 (DPA),22:6n-3 (DHA)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI6:BI10000" xr:uid="{5482E599-9A41-4B43-8161-73CCB1E13AC9}">
+      <formula1>"ug/mg sample weight, % total protein"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ6:BJ10000" xr:uid="{2FF93C04-BFBA-A042-839F-6119E2726FB2}">
+      <formula1>"Alanine, Argenine, Asparatic acid, Cysteine, Cytine, Glutamic acid, Glycine, Histadine, Isoleucine, Leucine, Lysine, Methionine, Phenylalinine, Proline, Serine, Threonine, Tyosine, Valine"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
